--- a/Documentos/Metas_SisHair.xlsx
+++ b/Documentos/Metas_SisHair.xlsx
@@ -600,15 +600,15 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -648,6 +648,17 @@
       </c>
       <c r="C3">
         <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(B2:B80)</f>
+        <v>576</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM(C2:C80)</f>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -661,7 +672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -670,6 +681,14 @@
       </c>
       <c r="C5">
         <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10">
+        <f>(G3/F3)*100%</f>
+        <v>0.85763888888888884</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,7 +702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -692,6 +711,16 @@
       </c>
       <c r="C7">
         <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
+        <f>(G3*20)/60</f>
+        <v>164.66666666666666</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,7 +734,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
@@ -714,6 +743,12 @@
       </c>
       <c r="C9">
         <v>40</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -726,19 +761,14 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <f>SUM(B2:B80)</f>
-        <v>576</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM(C2:C80)</f>
-        <v>494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -748,8 +778,14 @@
       <c r="C11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -759,74 +795,30 @@
       <c r="C12">
         <v>60</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="10">
-        <f>(G10/F10)*100%</f>
-        <v>0.85763888888888884</v>
+    </row>
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="17">
+        <f>(F7/(F9*F10*F11))</f>
+        <v>11.761904761904761</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9">
-        <f>(G10*20)/60</f>
-        <v>164.66666666666666</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="17">
-        <f>(F14/(F16*F17*F18))</f>
-        <v>11.761904761904761</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E21" s="6"/>
-      <c r="F21" s="18">
-        <f>(F20*F17)</f>
+      <c r="E14" s="6"/>
+      <c r="F14" s="18">
+        <f>(F13*F10)</f>
         <v>82.333333333333329</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>7</v>
       </c>
